--- a/6Timetable/data/20210601/TIHP/●TIHP予約枠0601分.xlsx
+++ b/6Timetable/data/20210601/TIHP/●TIHP予約枠0601分.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="会場" sheetId="8" r:id="rId1"/>
     <sheet name="稼働日" sheetId="11" r:id="rId2"/>
     <sheet name="ダミー稼働日" sheetId="12" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029" concurrentCalc="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="30" uniqueCount="30">
   <si>
     <t>開始時</t>
   </si>
@@ -34,6 +34,9 @@
       <t>ジコク</t>
     </rPh>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>巽今宮病院_7/13～7/30</t>
   </si>
   <si>
     <t>デフォルト開始時刻</t>
@@ -63,19 +66,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>7/13～7/30_巽今宮病院</t>
-    <rPh sb="10" eb="11">
-      <t>タツミ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>イマミヤ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ビョウイン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>昼休み終了時間
 ※インポート時紐付け不要</t>
     <rPh sb="0" eb="2">
@@ -85,6 +75,9 @@
       <t>シュウリョウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>デフォルト毎時間枠の時間</t>
   </si>
   <si>
     <t>接種（予約）終了時間
@@ -99,9 +92,6 @@
       <t>シュウリョウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>デフォルト毎時間枠の時間</t>
   </si>
   <si>
     <t>昼休み開始</t>
@@ -197,8 +187,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
       </rPr>
       <t>o</t>
     </r>
@@ -219,9 +207,6 @@
     <t>昼休み終了</t>
   </si>
   <si>
-    <t>7/13～7/30_巽今宮病院</t>
-  </si>
-  <si>
     <t>箕面市今宮３丁目１９－２７</t>
     <rPh sb="6" eb="8">
       <t>チョウメ</t>
@@ -229,41 +214,19 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <r>
-      <t>6/09</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>～6/18_巽今宮病院</t>
-    </r>
-    <rPh sb="10" eb="11">
-      <t>タツミ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>イマミヤ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ビョウイン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
+    <t>巽今宮病院_6/09～6/18(6/1受付開始)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="[&lt;=99999999]####\-####;\(00\)\ ####\-####"/>
-    <numFmt numFmtId="177" formatCode="h:mm;@"/>
-    <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="178" formatCode="h:mm;@"/>
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -280,6 +243,7 @@
     </font>
     <font>
       <sz val="6"/>
+      <color auto="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <scheme val="minor"/>
@@ -292,13 +256,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
   </fonts>
   <fills count="12">
     <fill>
@@ -309,7 +266,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
+        <fgColor theme="7" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -321,49 +278,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
+        <fgColor theme="8" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
+        <fgColor theme="6" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
+        <fgColor theme="8" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
+        <fgColor theme="6" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
+        <fgColor theme="7" tint="0.4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
+        <fgColor theme="7" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFBE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -441,19 +398,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -471,6 +415,19 @@
         <color indexed="64"/>
       </top>
       <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -548,13 +505,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1">
@@ -566,7 +523,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
@@ -581,21 +538,45 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="177" fontId="1" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="5" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="6" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="7" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="7" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="8" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="9" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="1" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -608,90 +589,65 @@
     <xf numFmtId="178" fontId="1" fillId="7" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="7" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="8" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="9" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="5" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="6" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="7" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="7" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="8" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="9" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="10" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="10" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="10" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="178" fontId="1" fillId="7" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="8" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="9" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="11" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="11" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="11" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="ハイパーリンク" xfId="3" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="1"/>
     <cellStyle name="標準 3" xfId="2"/>
+    <cellStyle name="ハイパーリンク" xfId="3" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+      <x14:slicerStyles xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+      <x15:timelineStyles xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -985,14 +941,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="31.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.625" bestFit="1" customWidth="1"/>
@@ -1004,9 +960,9 @@
     <col min="9" max="10" width="26.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" s="1" customFormat="1">
       <c r="A1" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>14</v>
@@ -1018,30 +974,30 @@
         <v>12</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="1" customFormat="1">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
-        <v>7</v>
-      </c>
       <c r="B2" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="5"/>
@@ -1055,7 +1011,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="H2" s="8">
-        <v>0.66666666666666663</v>
+        <v>0.66666666666666652</v>
       </c>
       <c r="I2" s="9" t="str">
         <f>TEXT(F2,"yyyy-mm-dd")&amp;"T"&amp;TEXT(G2,"hh:MM")&amp;":00.000+9"</f>
@@ -1069,20 +1025,20 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <dimension ref="A1:S35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B41" sqref="B41"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B17" sqref="B17:B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.75" bestFit="1" customWidth="1"/>
@@ -1095,7 +1051,7 @@
     <col min="16" max="19" width="26.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:19" s="1" customFormat="1" ht="27">
       <c r="A1" s="10" t="s">
         <v>22</v>
       </c>
@@ -1112,7 +1068,7 @@
         <v>17</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G1" s="21" t="s">
         <v>18</v>
@@ -1124,7 +1080,7 @@
         <v>19</v>
       </c>
       <c r="J1" s="21" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K1" s="21" t="s">
         <v>23</v>
@@ -1145,21 +1101,21 @@
         <v>0</v>
       </c>
       <c r="Q1" s="21" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R1" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="S1" s="44" t="s">
+      <c r="S1" s="45" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:19" s="1" customFormat="1">
       <c r="A2" s="11">
         <v>1</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" s="22" t="b">
         <v>1</v>
@@ -1171,7 +1127,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="F2" s="30">
-        <v>0.66666666666666663</v>
+        <v>0.66666666666666652</v>
       </c>
       <c r="G2" s="30"/>
       <c r="H2" s="30"/>
@@ -1193,33 +1149,33 @@
       <c r="N2" s="13">
         <v>8</v>
       </c>
-      <c r="O2" s="38" t="str">
+      <c r="O2" s="39" t="str">
         <f t="shared" ref="O2:O35" si="0">B2&amp;"/"&amp;TEXT(D2,"yyyy-mm-dd")</f>
-        <v>6/09～6/18_巽今宮病院/2021-06-09</v>
-      </c>
-      <c r="P2" s="41" t="str">
+        <v>巽今宮病院_6/09～6/18(6/1受付開始)/2021-06-09</v>
+      </c>
+      <c r="P2" s="42" t="str">
         <f t="shared" ref="P2:P35" si="1">TEXT(D2,"yyyy-mm-dd")&amp;"T"&amp;TEXT(E2,"hh:MM")&amp;":00.000+9"</f>
         <v>2021-06-09T14:00:00.000+9</v>
       </c>
-      <c r="Q2" s="41" t="str">
+      <c r="Q2" s="42" t="str">
         <f t="shared" ref="Q2:Q35" si="2">TEXT(D2,"yyyy-mm-dd")&amp;"T"&amp;TEXT(F2,"hh:MM")&amp;":00.000+9"</f>
         <v>2021-06-09T16:00:00.000+9</v>
       </c>
-      <c r="R2" s="41" t="str">
+      <c r="R2" s="42" t="str">
         <f t="shared" ref="R2:R35" si="3">TEXT(D2,"yyyy-mm-dd")&amp;"T"&amp;TEXT(G2,"hh:MM")&amp;":00.000+9"</f>
         <v>2021-06-09T00:00:00.000+9</v>
       </c>
-      <c r="S2" s="45" t="str">
+      <c r="S2" s="46" t="str">
         <f t="shared" ref="S2:S35" si="4">TEXT(D2,"yyyy-mm-dd")&amp;"T"&amp;TEXT(H2,"hh:MM")&amp;":00.000+9"</f>
         <v>2021-06-09T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:19" s="1" customFormat="1">
       <c r="A3" s="11">
         <v>2</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C3" s="22" t="b">
         <v>1</v>
@@ -1231,7 +1187,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="F3" s="30">
-        <v>0.66666666666666663</v>
+        <v>0.66666666666666652</v>
       </c>
       <c r="G3" s="30"/>
       <c r="H3" s="30"/>
@@ -1253,33 +1209,33 @@
       <c r="N3" s="13">
         <v>8</v>
       </c>
-      <c r="O3" s="38" t="str">
-        <f t="shared" si="0"/>
-        <v>6/09～6/18_巽今宮病院/2021-06-10</v>
-      </c>
-      <c r="P3" s="41" t="str">
+      <c r="O3" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v>巽今宮病院_6/09～6/18(6/1受付開始)/2021-06-10</v>
+      </c>
+      <c r="P3" s="42" t="str">
         <f t="shared" si="1"/>
         <v>2021-06-10T14:00:00.000+9</v>
       </c>
-      <c r="Q3" s="41" t="str">
+      <c r="Q3" s="42" t="str">
         <f t="shared" si="2"/>
         <v>2021-06-10T16:00:00.000+9</v>
       </c>
-      <c r="R3" s="41" t="str">
+      <c r="R3" s="42" t="str">
         <f t="shared" si="3"/>
         <v>2021-06-10T00:00:00.000+9</v>
       </c>
-      <c r="S3" s="45" t="str">
+      <c r="S3" s="46" t="str">
         <f t="shared" si="4"/>
         <v>2021-06-10T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="4" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:19" s="1" customFormat="1">
       <c r="A4" s="11">
         <v>3</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C4" s="22" t="b">
         <v>1</v>
@@ -1291,7 +1247,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="F4" s="30">
-        <v>0.66666666666666663</v>
+        <v>0.66666666666666652</v>
       </c>
       <c r="G4" s="30"/>
       <c r="H4" s="30"/>
@@ -1313,33 +1269,33 @@
       <c r="N4" s="13">
         <v>8</v>
       </c>
-      <c r="O4" s="38" t="str">
-        <f t="shared" si="0"/>
-        <v>6/09～6/18_巽今宮病院/2021-06-11</v>
-      </c>
-      <c r="P4" s="41" t="str">
+      <c r="O4" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v>巽今宮病院_6/09～6/18(6/1受付開始)/2021-06-11</v>
+      </c>
+      <c r="P4" s="42" t="str">
         <f t="shared" si="1"/>
         <v>2021-06-11T14:00:00.000+9</v>
       </c>
-      <c r="Q4" s="41" t="str">
+      <c r="Q4" s="42" t="str">
         <f t="shared" si="2"/>
         <v>2021-06-11T16:00:00.000+9</v>
       </c>
-      <c r="R4" s="41" t="str">
+      <c r="R4" s="42" t="str">
         <f t="shared" si="3"/>
         <v>2021-06-11T00:00:00.000+9</v>
       </c>
-      <c r="S4" s="45" t="str">
+      <c r="S4" s="46" t="str">
         <f t="shared" si="4"/>
         <v>2021-06-11T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="5" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:19" s="1" customFormat="1">
       <c r="A5" s="11">
         <v>4</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C5" s="23" t="b">
         <v>1</v>
@@ -1351,7 +1307,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="F5" s="31">
-        <v>0.66666666666666663</v>
+        <v>0.66666666666666652</v>
       </c>
       <c r="G5" s="31"/>
       <c r="H5" s="31"/>
@@ -1373,33 +1329,33 @@
       <c r="N5" s="14">
         <v>8</v>
       </c>
-      <c r="O5" s="38" t="str">
-        <f t="shared" si="0"/>
-        <v>6/09～6/18_巽今宮病院/2021-06-15</v>
-      </c>
-      <c r="P5" s="41" t="str">
+      <c r="O5" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v>巽今宮病院_6/09～6/18(6/1受付開始)/2021-06-15</v>
+      </c>
+      <c r="P5" s="42" t="str">
         <f t="shared" si="1"/>
         <v>2021-06-15T14:00:00.000+9</v>
       </c>
-      <c r="Q5" s="41" t="str">
+      <c r="Q5" s="42" t="str">
         <f t="shared" si="2"/>
         <v>2021-06-15T16:00:00.000+9</v>
       </c>
-      <c r="R5" s="41" t="str">
+      <c r="R5" s="42" t="str">
         <f t="shared" si="3"/>
         <v>2021-06-15T00:00:00.000+9</v>
       </c>
-      <c r="S5" s="45" t="str">
+      <c r="S5" s="46" t="str">
         <f t="shared" si="4"/>
         <v>2021-06-15T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="6" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:19" s="1" customFormat="1">
       <c r="A6" s="11">
         <v>5</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="23" t="b">
         <v>1</v>
@@ -1411,7 +1367,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="F6" s="31">
-        <v>0.66666666666666663</v>
+        <v>0.66666666666666652</v>
       </c>
       <c r="G6" s="31"/>
       <c r="H6" s="31"/>
@@ -1433,33 +1389,33 @@
       <c r="N6" s="14">
         <v>8</v>
       </c>
-      <c r="O6" s="38" t="str">
-        <f t="shared" si="0"/>
-        <v>6/09～6/18_巽今宮病院/2021-06-16</v>
-      </c>
-      <c r="P6" s="41" t="str">
+      <c r="O6" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v>巽今宮病院_6/09～6/18(6/1受付開始)/2021-06-16</v>
+      </c>
+      <c r="P6" s="42" t="str">
         <f t="shared" si="1"/>
         <v>2021-06-16T14:00:00.000+9</v>
       </c>
-      <c r="Q6" s="41" t="str">
+      <c r="Q6" s="42" t="str">
         <f t="shared" si="2"/>
         <v>2021-06-16T16:00:00.000+9</v>
       </c>
-      <c r="R6" s="41" t="str">
+      <c r="R6" s="42" t="str">
         <f t="shared" si="3"/>
         <v>2021-06-16T00:00:00.000+9</v>
       </c>
-      <c r="S6" s="45" t="str">
+      <c r="S6" s="46" t="str">
         <f t="shared" si="4"/>
         <v>2021-06-16T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="7" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:19" s="1" customFormat="1">
       <c r="A7" s="11">
         <v>6</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C7" s="23" t="b">
         <v>1</v>
@@ -1471,7 +1427,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="F7" s="31">
-        <v>0.66666666666666663</v>
+        <v>0.66666666666666652</v>
       </c>
       <c r="G7" s="31"/>
       <c r="H7" s="31"/>
@@ -1493,33 +1449,33 @@
       <c r="N7" s="14">
         <v>8</v>
       </c>
-      <c r="O7" s="38" t="str">
-        <f t="shared" si="0"/>
-        <v>6/09～6/18_巽今宮病院/2021-06-17</v>
-      </c>
-      <c r="P7" s="41" t="str">
+      <c r="O7" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v>巽今宮病院_6/09～6/18(6/1受付開始)/2021-06-17</v>
+      </c>
+      <c r="P7" s="42" t="str">
         <f t="shared" si="1"/>
         <v>2021-06-17T14:00:00.000+9</v>
       </c>
-      <c r="Q7" s="41" t="str">
+      <c r="Q7" s="42" t="str">
         <f t="shared" si="2"/>
         <v>2021-06-17T16:00:00.000+9</v>
       </c>
-      <c r="R7" s="41" t="str">
+      <c r="R7" s="42" t="str">
         <f t="shared" si="3"/>
         <v>2021-06-17T00:00:00.000+9</v>
       </c>
-      <c r="S7" s="45" t="str">
+      <c r="S7" s="46" t="str">
         <f t="shared" si="4"/>
         <v>2021-06-17T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="8" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:19" s="1" customFormat="1">
       <c r="A8" s="11">
         <v>7</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C8" s="23" t="b">
         <v>1</v>
@@ -1531,7 +1487,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="F8" s="31">
-        <v>0.66666666666666663</v>
+        <v>0.66666666666666652</v>
       </c>
       <c r="G8" s="31"/>
       <c r="H8" s="31"/>
@@ -1553,33 +1509,33 @@
       <c r="N8" s="14">
         <v>8</v>
       </c>
-      <c r="O8" s="38" t="str">
-        <f t="shared" si="0"/>
-        <v>6/09～6/18_巽今宮病院/2021-06-18</v>
-      </c>
-      <c r="P8" s="41" t="str">
+      <c r="O8" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v>巽今宮病院_6/09～6/18(6/1受付開始)/2021-06-18</v>
+      </c>
+      <c r="P8" s="42" t="str">
         <f t="shared" si="1"/>
         <v>2021-06-18T14:00:00.000+9</v>
       </c>
-      <c r="Q8" s="41" t="str">
+      <c r="Q8" s="42" t="str">
         <f t="shared" si="2"/>
         <v>2021-06-18T16:00:00.000+9</v>
       </c>
-      <c r="R8" s="41" t="str">
+      <c r="R8" s="42" t="str">
         <f t="shared" si="3"/>
         <v>2021-06-18T00:00:00.000+9</v>
       </c>
-      <c r="S8" s="45" t="str">
+      <c r="S8" s="46" t="str">
         <f t="shared" si="4"/>
         <v>2021-06-18T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="9" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:19" s="1" customFormat="1">
       <c r="A9" s="11">
         <v>8</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C9" s="24" t="b">
         <v>1</v>
@@ -1591,7 +1547,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="F9" s="32">
-        <v>0.66666666666666663</v>
+        <v>0.66666666666666652</v>
       </c>
       <c r="G9" s="32"/>
       <c r="H9" s="32"/>
@@ -1613,33 +1569,33 @@
       <c r="N9" s="15">
         <v>8</v>
       </c>
-      <c r="O9" s="38" t="str">
-        <f t="shared" si="0"/>
-        <v>6/09～6/18_巽今宮病院/2021-06-30</v>
-      </c>
-      <c r="P9" s="41" t="str">
+      <c r="O9" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v>巽今宮病院_6/09～6/18(6/1受付開始)/2021-06-30</v>
+      </c>
+      <c r="P9" s="42" t="str">
         <f t="shared" si="1"/>
         <v>2021-06-30T14:00:00.000+9</v>
       </c>
-      <c r="Q9" s="41" t="str">
+      <c r="Q9" s="42" t="str">
         <f t="shared" si="2"/>
         <v>2021-06-30T16:00:00.000+9</v>
       </c>
-      <c r="R9" s="41" t="str">
+      <c r="R9" s="42" t="str">
         <f t="shared" si="3"/>
         <v>2021-06-30T00:00:00.000+9</v>
       </c>
-      <c r="S9" s="45" t="str">
+      <c r="S9" s="46" t="str">
         <f t="shared" si="4"/>
         <v>2021-06-30T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="10" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:19" s="1" customFormat="1">
       <c r="A10" s="11">
         <v>9</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" s="24" t="b">
         <v>1</v>
@@ -1651,7 +1607,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="F10" s="32">
-        <v>0.66666666666666663</v>
+        <v>0.66666666666666652</v>
       </c>
       <c r="G10" s="32"/>
       <c r="H10" s="32"/>
@@ -1673,33 +1629,33 @@
       <c r="N10" s="15">
         <v>8</v>
       </c>
-      <c r="O10" s="38" t="str">
-        <f t="shared" si="0"/>
-        <v>6/09～6/18_巽今宮病院/2021-07-01</v>
-      </c>
-      <c r="P10" s="41" t="str">
+      <c r="O10" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v>巽今宮病院_6/09～6/18(6/1受付開始)/2021-07-01</v>
+      </c>
+      <c r="P10" s="42" t="str">
         <f t="shared" si="1"/>
         <v>2021-07-01T14:00:00.000+9</v>
       </c>
-      <c r="Q10" s="41" t="str">
+      <c r="Q10" s="42" t="str">
         <f t="shared" si="2"/>
         <v>2021-07-01T16:00:00.000+9</v>
       </c>
-      <c r="R10" s="41" t="str">
+      <c r="R10" s="42" t="str">
         <f t="shared" si="3"/>
         <v>2021-07-01T00:00:00.000+9</v>
       </c>
-      <c r="S10" s="45" t="str">
+      <c r="S10" s="46" t="str">
         <f t="shared" si="4"/>
         <v>2021-07-01T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="11" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:19" s="1" customFormat="1">
       <c r="A11" s="11">
         <v>10</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11" s="24" t="b">
         <v>1</v>
@@ -1711,7 +1667,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="F11" s="32">
-        <v>0.66666666666666663</v>
+        <v>0.66666666666666652</v>
       </c>
       <c r="G11" s="32"/>
       <c r="H11" s="32"/>
@@ -1733,33 +1689,33 @@
       <c r="N11" s="15">
         <v>8</v>
       </c>
-      <c r="O11" s="38" t="str">
-        <f t="shared" si="0"/>
-        <v>6/09～6/18_巽今宮病院/2021-07-02</v>
-      </c>
-      <c r="P11" s="41" t="str">
+      <c r="O11" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v>巽今宮病院_6/09～6/18(6/1受付開始)/2021-07-02</v>
+      </c>
+      <c r="P11" s="42" t="str">
         <f t="shared" si="1"/>
         <v>2021-07-02T14:00:00.000+9</v>
       </c>
-      <c r="Q11" s="41" t="str">
+      <c r="Q11" s="42" t="str">
         <f t="shared" si="2"/>
         <v>2021-07-02T16:00:00.000+9</v>
       </c>
-      <c r="R11" s="41" t="str">
+      <c r="R11" s="42" t="str">
         <f t="shared" si="3"/>
         <v>2021-07-02T00:00:00.000+9</v>
       </c>
-      <c r="S11" s="45" t="str">
+      <c r="S11" s="46" t="str">
         <f t="shared" si="4"/>
         <v>2021-07-02T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="12" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:19" s="1" customFormat="1">
       <c r="A12" s="11">
         <v>11</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" s="25" t="b">
         <v>1</v>
@@ -1771,7 +1727,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="F12" s="33">
-        <v>0.66666666666666663</v>
+        <v>0.66666666666666652</v>
       </c>
       <c r="G12" s="33"/>
       <c r="H12" s="33"/>
@@ -1793,33 +1749,33 @@
       <c r="N12" s="16">
         <v>8</v>
       </c>
-      <c r="O12" s="38" t="str">
-        <f t="shared" si="0"/>
-        <v>6/09～6/18_巽今宮病院/2021-07-06</v>
-      </c>
-      <c r="P12" s="41" t="str">
+      <c r="O12" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v>巽今宮病院_6/09～6/18(6/1受付開始)/2021-07-06</v>
+      </c>
+      <c r="P12" s="42" t="str">
         <f t="shared" si="1"/>
         <v>2021-07-06T14:00:00.000+9</v>
       </c>
-      <c r="Q12" s="41" t="str">
+      <c r="Q12" s="42" t="str">
         <f t="shared" si="2"/>
         <v>2021-07-06T16:00:00.000+9</v>
       </c>
-      <c r="R12" s="41" t="str">
+      <c r="R12" s="42" t="str">
         <f t="shared" si="3"/>
         <v>2021-07-06T00:00:00.000+9</v>
       </c>
-      <c r="S12" s="45" t="str">
+      <c r="S12" s="46" t="str">
         <f t="shared" si="4"/>
         <v>2021-07-06T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="13" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:19" s="1" customFormat="1">
       <c r="A13" s="11">
         <v>12</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C13" s="25" t="b">
         <v>1</v>
@@ -1831,7 +1787,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="F13" s="33">
-        <v>0.66666666666666663</v>
+        <v>0.66666666666666652</v>
       </c>
       <c r="G13" s="33"/>
       <c r="H13" s="33"/>
@@ -1853,33 +1809,33 @@
       <c r="N13" s="16">
         <v>8</v>
       </c>
-      <c r="O13" s="38" t="str">
-        <f t="shared" si="0"/>
-        <v>6/09～6/18_巽今宮病院/2021-07-07</v>
-      </c>
-      <c r="P13" s="41" t="str">
+      <c r="O13" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v>巽今宮病院_6/09～6/18(6/1受付開始)/2021-07-07</v>
+      </c>
+      <c r="P13" s="42" t="str">
         <f t="shared" si="1"/>
         <v>2021-07-07T14:00:00.000+9</v>
       </c>
-      <c r="Q13" s="41" t="str">
+      <c r="Q13" s="42" t="str">
         <f t="shared" si="2"/>
         <v>2021-07-07T16:00:00.000+9</v>
       </c>
-      <c r="R13" s="41" t="str">
+      <c r="R13" s="42" t="str">
         <f t="shared" si="3"/>
         <v>2021-07-07T00:00:00.000+9</v>
       </c>
-      <c r="S13" s="45" t="str">
+      <c r="S13" s="46" t="str">
         <f t="shared" si="4"/>
         <v>2021-07-07T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="14" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:19" s="1" customFormat="1">
       <c r="A14" s="11">
         <v>13</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" s="25" t="b">
         <v>1</v>
@@ -1891,7 +1847,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="F14" s="33">
-        <v>0.66666666666666663</v>
+        <v>0.66666666666666652</v>
       </c>
       <c r="G14" s="33"/>
       <c r="H14" s="33"/>
@@ -1913,33 +1869,33 @@
       <c r="N14" s="16">
         <v>8</v>
       </c>
-      <c r="O14" s="38" t="str">
-        <f t="shared" si="0"/>
-        <v>6/09～6/18_巽今宮病院/2021-07-08</v>
-      </c>
-      <c r="P14" s="41" t="str">
+      <c r="O14" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v>巽今宮病院_6/09～6/18(6/1受付開始)/2021-07-08</v>
+      </c>
+      <c r="P14" s="42" t="str">
         <f t="shared" si="1"/>
         <v>2021-07-08T14:00:00.000+9</v>
       </c>
-      <c r="Q14" s="41" t="str">
+      <c r="Q14" s="42" t="str">
         <f t="shared" si="2"/>
         <v>2021-07-08T16:00:00.000+9</v>
       </c>
-      <c r="R14" s="41" t="str">
+      <c r="R14" s="42" t="str">
         <f t="shared" si="3"/>
         <v>2021-07-08T00:00:00.000+9</v>
       </c>
-      <c r="S14" s="45" t="str">
+      <c r="S14" s="46" t="str">
         <f t="shared" si="4"/>
         <v>2021-07-08T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="15" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:19" s="1" customFormat="1" ht="14.25">
       <c r="A15" s="11">
         <v>14</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C15" s="26" t="b">
         <v>1</v>
@@ -1951,7 +1907,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="F15" s="34">
-        <v>0.66666666666666663</v>
+        <v>0.66666666666666652</v>
       </c>
       <c r="G15" s="34"/>
       <c r="H15" s="34"/>
@@ -1973,33 +1929,33 @@
       <c r="N15" s="17">
         <v>8</v>
       </c>
-      <c r="O15" s="39" t="str">
-        <f t="shared" si="0"/>
-        <v>6/09～6/18_巽今宮病院/2021-07-09</v>
-      </c>
-      <c r="P15" s="42" t="str">
+      <c r="O15" s="40" t="str">
+        <f t="shared" si="0"/>
+        <v>巽今宮病院_6/09～6/18(6/1受付開始)/2021-07-09</v>
+      </c>
+      <c r="P15" s="43" t="str">
         <f t="shared" si="1"/>
         <v>2021-07-09T14:00:00.000+9</v>
       </c>
-      <c r="Q15" s="42" t="str">
+      <c r="Q15" s="43" t="str">
         <f t="shared" si="2"/>
         <v>2021-07-09T16:00:00.000+9</v>
       </c>
-      <c r="R15" s="42" t="str">
+      <c r="R15" s="43" t="str">
         <f t="shared" si="3"/>
         <v>2021-07-09T00:00:00.000+9</v>
       </c>
-      <c r="S15" s="46" t="str">
+      <c r="S15" s="47" t="str">
         <f t="shared" si="4"/>
         <v>2021-07-09T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="16" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:19" s="1" customFormat="1">
       <c r="A16" s="11">
         <v>15</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="C16" s="27" t="b">
         <v>1</v>
@@ -2011,17 +1967,17 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="F16" s="35">
-        <v>0.66666666666666663</v>
+        <v>0.66666666666666652</v>
       </c>
       <c r="G16" s="35"/>
       <c r="H16" s="35"/>
       <c r="I16" s="18">
         <v>30</v>
       </c>
-      <c r="J16" s="48">
+      <c r="J16" s="38">
         <v>9</v>
       </c>
-      <c r="K16" s="48">
+      <c r="K16" s="38">
         <v>3</v>
       </c>
       <c r="L16" s="18">
@@ -2033,33 +1989,33 @@
       <c r="N16" s="18">
         <v>8</v>
       </c>
-      <c r="O16" s="40" t="str">
-        <f t="shared" si="0"/>
-        <v>7/13～7/30_巽今宮病院/2021-07-13</v>
-      </c>
-      <c r="P16" s="43" t="str">
+      <c r="O16" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v>巽今宮病院_7/13～7/30/2021-07-13</v>
+      </c>
+      <c r="P16" s="44" t="str">
         <f t="shared" si="1"/>
         <v>2021-07-13T14:00:00.000+9</v>
       </c>
-      <c r="Q16" s="43" t="str">
+      <c r="Q16" s="44" t="str">
         <f t="shared" si="2"/>
         <v>2021-07-13T16:00:00.000+9</v>
       </c>
-      <c r="R16" s="43" t="str">
+      <c r="R16" s="44" t="str">
         <f t="shared" si="3"/>
         <v>2021-07-13T00:00:00.000+9</v>
       </c>
-      <c r="S16" s="43" t="str">
+      <c r="S16" s="44" t="str">
         <f t="shared" si="4"/>
         <v>2021-07-13T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="17" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:19" s="1" customFormat="1">
       <c r="A17" s="11">
         <v>16</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="C17" s="27" t="b">
         <v>1</v>
@@ -2071,17 +2027,17 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="F17" s="35">
-        <v>0.66666666666666663</v>
+        <v>0.66666666666666652</v>
       </c>
       <c r="G17" s="35"/>
       <c r="H17" s="35"/>
       <c r="I17" s="18">
         <v>30</v>
       </c>
-      <c r="J17" s="48">
+      <c r="J17" s="38">
         <v>9</v>
       </c>
-      <c r="K17" s="48">
+      <c r="K17" s="38">
         <v>3</v>
       </c>
       <c r="L17" s="18">
@@ -2093,33 +2049,33 @@
       <c r="N17" s="18">
         <v>8</v>
       </c>
-      <c r="O17" s="40" t="str">
-        <f t="shared" si="0"/>
-        <v>7/13～7/30_巽今宮病院/2021-07-14</v>
-      </c>
-      <c r="P17" s="43" t="str">
+      <c r="O17" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v>巽今宮病院_7/13～7/30/2021-07-14</v>
+      </c>
+      <c r="P17" s="44" t="str">
         <f t="shared" si="1"/>
         <v>2021-07-14T14:00:00.000+9</v>
       </c>
-      <c r="Q17" s="43" t="str">
+      <c r="Q17" s="44" t="str">
         <f t="shared" si="2"/>
         <v>2021-07-14T16:00:00.000+9</v>
       </c>
-      <c r="R17" s="43" t="str">
+      <c r="R17" s="44" t="str">
         <f t="shared" si="3"/>
         <v>2021-07-14T00:00:00.000+9</v>
       </c>
-      <c r="S17" s="43" t="str">
+      <c r="S17" s="44" t="str">
         <f t="shared" si="4"/>
         <v>2021-07-14T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="18" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:19" s="1" customFormat="1">
       <c r="A18" s="11">
         <v>17</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="C18" s="27" t="b">
         <v>1</v>
@@ -2131,17 +2087,17 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="F18" s="35">
-        <v>0.66666666666666663</v>
+        <v>0.66666666666666652</v>
       </c>
       <c r="G18" s="35"/>
       <c r="H18" s="35"/>
       <c r="I18" s="18">
         <v>30</v>
       </c>
-      <c r="J18" s="48">
+      <c r="J18" s="38">
         <v>9</v>
       </c>
-      <c r="K18" s="48">
+      <c r="K18" s="38">
         <v>3</v>
       </c>
       <c r="L18" s="18">
@@ -2153,33 +2109,33 @@
       <c r="N18" s="18">
         <v>8</v>
       </c>
-      <c r="O18" s="40" t="str">
-        <f t="shared" si="0"/>
-        <v>7/13～7/30_巽今宮病院/2021-07-15</v>
-      </c>
-      <c r="P18" s="43" t="str">
+      <c r="O18" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v>巽今宮病院_7/13～7/30/2021-07-15</v>
+      </c>
+      <c r="P18" s="44" t="str">
         <f t="shared" si="1"/>
         <v>2021-07-15T14:00:00.000+9</v>
       </c>
-      <c r="Q18" s="43" t="str">
+      <c r="Q18" s="44" t="str">
         <f t="shared" si="2"/>
         <v>2021-07-15T16:00:00.000+9</v>
       </c>
-      <c r="R18" s="43" t="str">
+      <c r="R18" s="44" t="str">
         <f t="shared" si="3"/>
         <v>2021-07-15T00:00:00.000+9</v>
       </c>
-      <c r="S18" s="43" t="str">
+      <c r="S18" s="44" t="str">
         <f t="shared" si="4"/>
         <v>2021-07-15T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="19" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:19" s="1" customFormat="1">
       <c r="A19" s="11">
         <v>18</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="C19" s="27" t="b">
         <v>1</v>
@@ -2191,17 +2147,17 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="F19" s="35">
-        <v>0.66666666666666663</v>
+        <v>0.66666666666666652</v>
       </c>
       <c r="G19" s="35"/>
       <c r="H19" s="35"/>
       <c r="I19" s="18">
         <v>30</v>
       </c>
-      <c r="J19" s="48">
+      <c r="J19" s="38">
         <v>9</v>
       </c>
-      <c r="K19" s="48">
+      <c r="K19" s="38">
         <v>3</v>
       </c>
       <c r="L19" s="18">
@@ -2213,33 +2169,33 @@
       <c r="N19" s="18">
         <v>8</v>
       </c>
-      <c r="O19" s="40" t="str">
-        <f t="shared" si="0"/>
-        <v>7/13～7/30_巽今宮病院/2021-07-16</v>
-      </c>
-      <c r="P19" s="43" t="str">
+      <c r="O19" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v>巽今宮病院_7/13～7/30/2021-07-16</v>
+      </c>
+      <c r="P19" s="44" t="str">
         <f t="shared" si="1"/>
         <v>2021-07-16T14:00:00.000+9</v>
       </c>
-      <c r="Q19" s="43" t="str">
+      <c r="Q19" s="44" t="str">
         <f t="shared" si="2"/>
         <v>2021-07-16T16:00:00.000+9</v>
       </c>
-      <c r="R19" s="43" t="str">
+      <c r="R19" s="44" t="str">
         <f t="shared" si="3"/>
         <v>2021-07-16T00:00:00.000+9</v>
       </c>
-      <c r="S19" s="43" t="str">
+      <c r="S19" s="44" t="str">
         <f t="shared" si="4"/>
         <v>2021-07-16T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="20" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:19" s="1" customFormat="1">
       <c r="A20" s="11">
         <v>19</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="C20" s="28" t="b">
         <v>1</v>
@@ -2251,17 +2207,17 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="F20" s="36">
-        <v>0.66666666666666663</v>
+        <v>0.66666666666666652</v>
       </c>
       <c r="G20" s="36"/>
       <c r="H20" s="36"/>
       <c r="I20" s="19">
         <v>30</v>
       </c>
-      <c r="J20" s="48">
+      <c r="J20" s="38">
         <v>9</v>
       </c>
-      <c r="K20" s="48">
+      <c r="K20" s="38">
         <v>3</v>
       </c>
       <c r="L20" s="19">
@@ -2273,33 +2229,33 @@
       <c r="N20" s="19">
         <v>8</v>
       </c>
-      <c r="O20" s="40" t="str">
-        <f t="shared" si="0"/>
-        <v>7/13～7/30_巽今宮病院/2021-07-20</v>
-      </c>
-      <c r="P20" s="43" t="str">
+      <c r="O20" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v>巽今宮病院_7/13～7/30/2021-07-20</v>
+      </c>
+      <c r="P20" s="44" t="str">
         <f t="shared" si="1"/>
         <v>2021-07-20T14:00:00.000+9</v>
       </c>
-      <c r="Q20" s="43" t="str">
+      <c r="Q20" s="44" t="str">
         <f t="shared" si="2"/>
         <v>2021-07-20T16:00:00.000+9</v>
       </c>
-      <c r="R20" s="43" t="str">
+      <c r="R20" s="44" t="str">
         <f t="shared" si="3"/>
         <v>2021-07-20T00:00:00.000+9</v>
       </c>
-      <c r="S20" s="43" t="str">
+      <c r="S20" s="44" t="str">
         <f t="shared" si="4"/>
         <v>2021-07-20T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="21" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:19" s="1" customFormat="1">
       <c r="A21" s="11">
         <v>20</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="C21" s="28" t="b">
         <v>1</v>
@@ -2311,17 +2267,17 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="F21" s="36">
-        <v>0.66666666666666663</v>
+        <v>0.66666666666666652</v>
       </c>
       <c r="G21" s="36"/>
       <c r="H21" s="36"/>
       <c r="I21" s="19">
         <v>30</v>
       </c>
-      <c r="J21" s="48">
+      <c r="J21" s="38">
         <v>9</v>
       </c>
-      <c r="K21" s="48">
+      <c r="K21" s="38">
         <v>3</v>
       </c>
       <c r="L21" s="19">
@@ -2333,33 +2289,33 @@
       <c r="N21" s="19">
         <v>8</v>
       </c>
-      <c r="O21" s="40" t="str">
-        <f t="shared" si="0"/>
-        <v>7/13～7/30_巽今宮病院/2021-07-21</v>
-      </c>
-      <c r="P21" s="43" t="str">
+      <c r="O21" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v>巽今宮病院_7/13～7/30/2021-07-21</v>
+      </c>
+      <c r="P21" s="44" t="str">
         <f t="shared" si="1"/>
         <v>2021-07-21T14:00:00.000+9</v>
       </c>
-      <c r="Q21" s="43" t="str">
+      <c r="Q21" s="44" t="str">
         <f t="shared" si="2"/>
         <v>2021-07-21T16:00:00.000+9</v>
       </c>
-      <c r="R21" s="43" t="str">
+      <c r="R21" s="44" t="str">
         <f t="shared" si="3"/>
         <v>2021-07-21T00:00:00.000+9</v>
       </c>
-      <c r="S21" s="43" t="str">
+      <c r="S21" s="44" t="str">
         <f t="shared" si="4"/>
         <v>2021-07-21T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="22" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:19" s="1" customFormat="1">
       <c r="A22" s="11">
         <v>21</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="C22" s="27" t="b">
         <v>1</v>
@@ -2371,17 +2327,17 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="F22" s="35">
-        <v>0.66666666666666663</v>
+        <v>0.66666666666666652</v>
       </c>
       <c r="G22" s="35"/>
       <c r="H22" s="35"/>
       <c r="I22" s="18">
         <v>30</v>
       </c>
-      <c r="J22" s="48">
+      <c r="J22" s="38">
         <v>9</v>
       </c>
-      <c r="K22" s="48">
+      <c r="K22" s="38">
         <v>3</v>
       </c>
       <c r="L22" s="18">
@@ -2393,33 +2349,33 @@
       <c r="N22" s="18">
         <v>8</v>
       </c>
-      <c r="O22" s="40" t="str">
-        <f t="shared" si="0"/>
-        <v>7/13～7/30_巽今宮病院/2021-07-27</v>
-      </c>
-      <c r="P22" s="43" t="str">
+      <c r="O22" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v>巽今宮病院_7/13～7/30/2021-07-27</v>
+      </c>
+      <c r="P22" s="44" t="str">
         <f t="shared" si="1"/>
         <v>2021-07-27T14:00:00.000+9</v>
       </c>
-      <c r="Q22" s="43" t="str">
+      <c r="Q22" s="44" t="str">
         <f t="shared" si="2"/>
         <v>2021-07-27T16:00:00.000+9</v>
       </c>
-      <c r="R22" s="43" t="str">
+      <c r="R22" s="44" t="str">
         <f t="shared" si="3"/>
         <v>2021-07-27T00:00:00.000+9</v>
       </c>
-      <c r="S22" s="43" t="str">
+      <c r="S22" s="44" t="str">
         <f t="shared" si="4"/>
         <v>2021-07-27T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="23" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:19" s="1" customFormat="1">
       <c r="A23" s="11">
         <v>22</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="C23" s="27" t="b">
         <v>1</v>
@@ -2431,17 +2387,17 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="F23" s="35">
-        <v>0.66666666666666663</v>
+        <v>0.66666666666666652</v>
       </c>
       <c r="G23" s="35"/>
       <c r="H23" s="35"/>
       <c r="I23" s="18">
         <v>30</v>
       </c>
-      <c r="J23" s="48">
+      <c r="J23" s="38">
         <v>9</v>
       </c>
-      <c r="K23" s="48">
+      <c r="K23" s="38">
         <v>3</v>
       </c>
       <c r="L23" s="18">
@@ -2453,33 +2409,33 @@
       <c r="N23" s="18">
         <v>8</v>
       </c>
-      <c r="O23" s="40" t="str">
-        <f t="shared" si="0"/>
-        <v>7/13～7/30_巽今宮病院/2021-07-28</v>
-      </c>
-      <c r="P23" s="43" t="str">
+      <c r="O23" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v>巽今宮病院_7/13～7/30/2021-07-28</v>
+      </c>
+      <c r="P23" s="44" t="str">
         <f t="shared" si="1"/>
         <v>2021-07-28T14:00:00.000+9</v>
       </c>
-      <c r="Q23" s="43" t="str">
+      <c r="Q23" s="44" t="str">
         <f t="shared" si="2"/>
         <v>2021-07-28T16:00:00.000+9</v>
       </c>
-      <c r="R23" s="43" t="str">
+      <c r="R23" s="44" t="str">
         <f t="shared" si="3"/>
         <v>2021-07-28T00:00:00.000+9</v>
       </c>
-      <c r="S23" s="43" t="str">
+      <c r="S23" s="44" t="str">
         <f t="shared" si="4"/>
         <v>2021-07-28T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="24" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:19" s="1" customFormat="1">
       <c r="A24" s="11">
         <v>23</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="C24" s="27" t="b">
         <v>1</v>
@@ -2491,17 +2447,17 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="F24" s="35">
-        <v>0.66666666666666663</v>
+        <v>0.66666666666666652</v>
       </c>
       <c r="G24" s="35"/>
       <c r="H24" s="35"/>
       <c r="I24" s="18">
         <v>30</v>
       </c>
-      <c r="J24" s="48">
+      <c r="J24" s="38">
         <v>9</v>
       </c>
-      <c r="K24" s="48">
+      <c r="K24" s="38">
         <v>3</v>
       </c>
       <c r="L24" s="18">
@@ -2513,33 +2469,33 @@
       <c r="N24" s="18">
         <v>8</v>
       </c>
-      <c r="O24" s="40" t="str">
-        <f t="shared" si="0"/>
-        <v>7/13～7/30_巽今宮病院/2021-07-29</v>
-      </c>
-      <c r="P24" s="43" t="str">
+      <c r="O24" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v>巽今宮病院_7/13～7/30/2021-07-29</v>
+      </c>
+      <c r="P24" s="44" t="str">
         <f t="shared" si="1"/>
         <v>2021-07-29T14:00:00.000+9</v>
       </c>
-      <c r="Q24" s="43" t="str">
+      <c r="Q24" s="44" t="str">
         <f t="shared" si="2"/>
         <v>2021-07-29T16:00:00.000+9</v>
       </c>
-      <c r="R24" s="43" t="str">
+      <c r="R24" s="44" t="str">
         <f t="shared" si="3"/>
         <v>2021-07-29T00:00:00.000+9</v>
       </c>
-      <c r="S24" s="43" t="str">
+      <c r="S24" s="44" t="str">
         <f t="shared" si="4"/>
         <v>2021-07-29T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="25" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:19" s="1" customFormat="1">
       <c r="A25" s="11">
         <v>24</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="C25" s="27" t="b">
         <v>1</v>
@@ -2551,17 +2507,17 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="F25" s="35">
-        <v>0.66666666666666663</v>
+        <v>0.66666666666666652</v>
       </c>
       <c r="G25" s="35"/>
       <c r="H25" s="35"/>
       <c r="I25" s="18">
         <v>30</v>
       </c>
-      <c r="J25" s="48">
+      <c r="J25" s="38">
         <v>9</v>
       </c>
-      <c r="K25" s="48">
+      <c r="K25" s="38">
         <v>3</v>
       </c>
       <c r="L25" s="18">
@@ -2573,33 +2529,33 @@
       <c r="N25" s="18">
         <v>8</v>
       </c>
-      <c r="O25" s="40" t="str">
-        <f t="shared" si="0"/>
-        <v>7/13～7/30_巽今宮病院/2021-07-30</v>
-      </c>
-      <c r="P25" s="43" t="str">
+      <c r="O25" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v>巽今宮病院_7/13～7/30/2021-07-30</v>
+      </c>
+      <c r="P25" s="44" t="str">
         <f t="shared" si="1"/>
         <v>2021-07-30T14:00:00.000+9</v>
       </c>
-      <c r="Q25" s="43" t="str">
+      <c r="Q25" s="44" t="str">
         <f t="shared" si="2"/>
         <v>2021-07-30T16:00:00.000+9</v>
       </c>
-      <c r="R25" s="43" t="str">
+      <c r="R25" s="44" t="str">
         <f t="shared" si="3"/>
         <v>2021-07-30T00:00:00.000+9</v>
       </c>
-      <c r="S25" s="43" t="str">
+      <c r="S25" s="44" t="str">
         <f t="shared" si="4"/>
         <v>2021-07-30T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="26" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:19" s="1" customFormat="1">
       <c r="A26" s="11">
         <v>25</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="C26" s="29" t="b">
         <v>1</v>
@@ -2611,17 +2567,17 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="F26" s="37">
-        <v>0.66666666666666663</v>
+        <v>0.66666666666666652</v>
       </c>
       <c r="G26" s="37"/>
       <c r="H26" s="37"/>
       <c r="I26" s="20">
         <v>30</v>
       </c>
-      <c r="J26" s="48">
+      <c r="J26" s="38">
         <v>9</v>
       </c>
-      <c r="K26" s="48">
+      <c r="K26" s="38">
         <v>3</v>
       </c>
       <c r="L26" s="20">
@@ -2633,33 +2589,33 @@
       <c r="N26" s="20">
         <v>8</v>
       </c>
-      <c r="O26" s="40" t="str">
-        <f t="shared" si="0"/>
-        <v>7/13～7/30_巽今宮病院/2021-08-03</v>
-      </c>
-      <c r="P26" s="43" t="str">
+      <c r="O26" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v>巽今宮病院_7/13～7/30/2021-08-03</v>
+      </c>
+      <c r="P26" s="44" t="str">
         <f t="shared" si="1"/>
         <v>2021-08-03T14:00:00.000+9</v>
       </c>
-      <c r="Q26" s="43" t="str">
+      <c r="Q26" s="44" t="str">
         <f t="shared" si="2"/>
         <v>2021-08-03T16:00:00.000+9</v>
       </c>
-      <c r="R26" s="43" t="str">
+      <c r="R26" s="44" t="str">
         <f t="shared" si="3"/>
         <v>2021-08-03T00:00:00.000+9</v>
       </c>
-      <c r="S26" s="43" t="str">
+      <c r="S26" s="44" t="str">
         <f t="shared" si="4"/>
         <v>2021-08-03T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="27" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:19" s="1" customFormat="1">
       <c r="A27" s="11">
         <v>26</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="C27" s="29" t="b">
         <v>1</v>
@@ -2671,17 +2627,17 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="F27" s="37">
-        <v>0.66666666666666663</v>
+        <v>0.66666666666666652</v>
       </c>
       <c r="G27" s="37"/>
       <c r="H27" s="37"/>
       <c r="I27" s="20">
         <v>30</v>
       </c>
-      <c r="J27" s="48">
+      <c r="J27" s="38">
         <v>9</v>
       </c>
-      <c r="K27" s="48">
+      <c r="K27" s="38">
         <v>3</v>
       </c>
       <c r="L27" s="20">
@@ -2693,33 +2649,33 @@
       <c r="N27" s="20">
         <v>8</v>
       </c>
-      <c r="O27" s="40" t="str">
-        <f t="shared" si="0"/>
-        <v>7/13～7/30_巽今宮病院/2021-08-04</v>
-      </c>
-      <c r="P27" s="43" t="str">
+      <c r="O27" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v>巽今宮病院_7/13～7/30/2021-08-04</v>
+      </c>
+      <c r="P27" s="44" t="str">
         <f t="shared" si="1"/>
         <v>2021-08-04T14:00:00.000+9</v>
       </c>
-      <c r="Q27" s="43" t="str">
+      <c r="Q27" s="44" t="str">
         <f t="shared" si="2"/>
         <v>2021-08-04T16:00:00.000+9</v>
       </c>
-      <c r="R27" s="43" t="str">
+      <c r="R27" s="44" t="str">
         <f t="shared" si="3"/>
         <v>2021-08-04T00:00:00.000+9</v>
       </c>
-      <c r="S27" s="43" t="str">
+      <c r="S27" s="44" t="str">
         <f t="shared" si="4"/>
         <v>2021-08-04T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="28" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:19" s="1" customFormat="1">
       <c r="A28" s="11">
         <v>27</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="C28" s="29" t="b">
         <v>1</v>
@@ -2731,17 +2687,17 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="F28" s="37">
-        <v>0.66666666666666663</v>
+        <v>0.66666666666666652</v>
       </c>
       <c r="G28" s="37"/>
       <c r="H28" s="37"/>
       <c r="I28" s="20">
         <v>30</v>
       </c>
-      <c r="J28" s="48">
+      <c r="J28" s="38">
         <v>9</v>
       </c>
-      <c r="K28" s="48">
+      <c r="K28" s="38">
         <v>3</v>
       </c>
       <c r="L28" s="20">
@@ -2753,33 +2709,33 @@
       <c r="N28" s="20">
         <v>8</v>
       </c>
-      <c r="O28" s="40" t="str">
-        <f t="shared" si="0"/>
-        <v>7/13～7/30_巽今宮病院/2021-08-05</v>
-      </c>
-      <c r="P28" s="43" t="str">
+      <c r="O28" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v>巽今宮病院_7/13～7/30/2021-08-05</v>
+      </c>
+      <c r="P28" s="44" t="str">
         <f t="shared" si="1"/>
         <v>2021-08-05T14:00:00.000+9</v>
       </c>
-      <c r="Q28" s="43" t="str">
+      <c r="Q28" s="44" t="str">
         <f t="shared" si="2"/>
         <v>2021-08-05T16:00:00.000+9</v>
       </c>
-      <c r="R28" s="43" t="str">
+      <c r="R28" s="44" t="str">
         <f t="shared" si="3"/>
         <v>2021-08-05T00:00:00.000+9</v>
       </c>
-      <c r="S28" s="43" t="str">
+      <c r="S28" s="44" t="str">
         <f t="shared" si="4"/>
         <v>2021-08-05T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="29" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:19" s="1" customFormat="1">
       <c r="A29" s="11">
         <v>28</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="C29" s="29" t="b">
         <v>1</v>
@@ -2791,17 +2747,17 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="F29" s="37">
-        <v>0.66666666666666663</v>
+        <v>0.66666666666666652</v>
       </c>
       <c r="G29" s="37"/>
       <c r="H29" s="37"/>
       <c r="I29" s="20">
         <v>30</v>
       </c>
-      <c r="J29" s="48">
+      <c r="J29" s="38">
         <v>9</v>
       </c>
-      <c r="K29" s="48">
+      <c r="K29" s="38">
         <v>3</v>
       </c>
       <c r="L29" s="20">
@@ -2813,33 +2769,33 @@
       <c r="N29" s="20">
         <v>8</v>
       </c>
-      <c r="O29" s="40" t="str">
-        <f t="shared" si="0"/>
-        <v>7/13～7/30_巽今宮病院/2021-08-06</v>
-      </c>
-      <c r="P29" s="43" t="str">
+      <c r="O29" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v>巽今宮病院_7/13～7/30/2021-08-06</v>
+      </c>
+      <c r="P29" s="44" t="str">
         <f t="shared" si="1"/>
         <v>2021-08-06T14:00:00.000+9</v>
       </c>
-      <c r="Q29" s="43" t="str">
+      <c r="Q29" s="44" t="str">
         <f t="shared" si="2"/>
         <v>2021-08-06T16:00:00.000+9</v>
       </c>
-      <c r="R29" s="43" t="str">
+      <c r="R29" s="44" t="str">
         <f t="shared" si="3"/>
         <v>2021-08-06T00:00:00.000+9</v>
       </c>
-      <c r="S29" s="43" t="str">
+      <c r="S29" s="44" t="str">
         <f t="shared" si="4"/>
         <v>2021-08-06T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="30" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:19" s="1" customFormat="1">
       <c r="A30" s="11">
         <v>29</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="C30" s="28" t="b">
         <v>1</v>
@@ -2851,17 +2807,17 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="F30" s="36">
-        <v>0.66666666666666663</v>
+        <v>0.66666666666666652</v>
       </c>
       <c r="G30" s="36"/>
       <c r="H30" s="36"/>
       <c r="I30" s="19">
         <v>30</v>
       </c>
-      <c r="J30" s="48">
+      <c r="J30" s="38">
         <v>9</v>
       </c>
-      <c r="K30" s="48">
+      <c r="K30" s="38">
         <v>3</v>
       </c>
       <c r="L30" s="19">
@@ -2873,33 +2829,33 @@
       <c r="N30" s="19">
         <v>8</v>
       </c>
-      <c r="O30" s="40" t="str">
-        <f t="shared" si="0"/>
-        <v>7/13～7/30_巽今宮病院/2021-08-10</v>
-      </c>
-      <c r="P30" s="43" t="str">
+      <c r="O30" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v>巽今宮病院_7/13～7/30/2021-08-10</v>
+      </c>
+      <c r="P30" s="44" t="str">
         <f t="shared" si="1"/>
         <v>2021-08-10T14:00:00.000+9</v>
       </c>
-      <c r="Q30" s="43" t="str">
+      <c r="Q30" s="44" t="str">
         <f t="shared" si="2"/>
         <v>2021-08-10T16:00:00.000+9</v>
       </c>
-      <c r="R30" s="43" t="str">
+      <c r="R30" s="44" t="str">
         <f t="shared" si="3"/>
         <v>2021-08-10T00:00:00.000+9</v>
       </c>
-      <c r="S30" s="43" t="str">
+      <c r="S30" s="44" t="str">
         <f t="shared" si="4"/>
         <v>2021-08-10T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="31" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:19" s="1" customFormat="1">
       <c r="A31" s="11">
         <v>30</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="C31" s="28" t="b">
         <v>1</v>
@@ -2911,17 +2867,17 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="F31" s="36">
-        <v>0.66666666666666663</v>
+        <v>0.66666666666666652</v>
       </c>
       <c r="G31" s="36"/>
       <c r="H31" s="36"/>
       <c r="I31" s="19">
         <v>30</v>
       </c>
-      <c r="J31" s="48">
+      <c r="J31" s="38">
         <v>9</v>
       </c>
-      <c r="K31" s="48">
+      <c r="K31" s="38">
         <v>3</v>
       </c>
       <c r="L31" s="19">
@@ -2933,33 +2889,33 @@
       <c r="N31" s="19">
         <v>8</v>
       </c>
-      <c r="O31" s="40" t="str">
-        <f t="shared" si="0"/>
-        <v>7/13～7/30_巽今宮病院/2021-08-11</v>
-      </c>
-      <c r="P31" s="43" t="str">
+      <c r="O31" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v>巽今宮病院_7/13～7/30/2021-08-11</v>
+      </c>
+      <c r="P31" s="44" t="str">
         <f t="shared" si="1"/>
         <v>2021-08-11T14:00:00.000+9</v>
       </c>
-      <c r="Q31" s="43" t="str">
+      <c r="Q31" s="44" t="str">
         <f t="shared" si="2"/>
         <v>2021-08-11T16:00:00.000+9</v>
       </c>
-      <c r="R31" s="43" t="str">
+      <c r="R31" s="44" t="str">
         <f t="shared" si="3"/>
         <v>2021-08-11T00:00:00.000+9</v>
       </c>
-      <c r="S31" s="43" t="str">
+      <c r="S31" s="44" t="str">
         <f t="shared" si="4"/>
         <v>2021-08-11T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="32" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:19" s="1" customFormat="1">
       <c r="A32" s="11">
         <v>31</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="C32" s="29" t="b">
         <v>1</v>
@@ -2971,17 +2927,17 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="F32" s="37">
-        <v>0.66666666666666663</v>
+        <v>0.66666666666666652</v>
       </c>
       <c r="G32" s="37"/>
       <c r="H32" s="37"/>
       <c r="I32" s="20">
         <v>30</v>
       </c>
-      <c r="J32" s="48">
+      <c r="J32" s="38">
         <v>9</v>
       </c>
-      <c r="K32" s="48">
+      <c r="K32" s="38">
         <v>3</v>
       </c>
       <c r="L32" s="20">
@@ -2993,33 +2949,33 @@
       <c r="N32" s="20">
         <v>8</v>
       </c>
-      <c r="O32" s="40" t="str">
-        <f t="shared" si="0"/>
-        <v>7/13～7/30_巽今宮病院/2021-08-17</v>
-      </c>
-      <c r="P32" s="43" t="str">
+      <c r="O32" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v>巽今宮病院_7/13～7/30/2021-08-17</v>
+      </c>
+      <c r="P32" s="44" t="str">
         <f t="shared" si="1"/>
         <v>2021-08-17T14:00:00.000+9</v>
       </c>
-      <c r="Q32" s="43" t="str">
+      <c r="Q32" s="44" t="str">
         <f t="shared" si="2"/>
         <v>2021-08-17T16:00:00.000+9</v>
       </c>
-      <c r="R32" s="43" t="str">
+      <c r="R32" s="44" t="str">
         <f t="shared" si="3"/>
         <v>2021-08-17T00:00:00.000+9</v>
       </c>
-      <c r="S32" s="43" t="str">
+      <c r="S32" s="44" t="str">
         <f t="shared" si="4"/>
         <v>2021-08-17T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="33" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:19" s="1" customFormat="1">
       <c r="A33" s="11">
         <v>32</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="C33" s="29" t="b">
         <v>1</v>
@@ -3031,17 +2987,17 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="F33" s="37">
-        <v>0.66666666666666663</v>
+        <v>0.66666666666666652</v>
       </c>
       <c r="G33" s="37"/>
       <c r="H33" s="37"/>
       <c r="I33" s="20">
         <v>30</v>
       </c>
-      <c r="J33" s="48">
+      <c r="J33" s="38">
         <v>9</v>
       </c>
-      <c r="K33" s="48">
+      <c r="K33" s="38">
         <v>3</v>
       </c>
       <c r="L33" s="20">
@@ -3053,33 +3009,33 @@
       <c r="N33" s="20">
         <v>8</v>
       </c>
-      <c r="O33" s="40" t="str">
-        <f t="shared" si="0"/>
-        <v>7/13～7/30_巽今宮病院/2021-08-18</v>
-      </c>
-      <c r="P33" s="43" t="str">
+      <c r="O33" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v>巽今宮病院_7/13～7/30/2021-08-18</v>
+      </c>
+      <c r="P33" s="44" t="str">
         <f t="shared" si="1"/>
         <v>2021-08-18T14:00:00.000+9</v>
       </c>
-      <c r="Q33" s="43" t="str">
+      <c r="Q33" s="44" t="str">
         <f t="shared" si="2"/>
         <v>2021-08-18T16:00:00.000+9</v>
       </c>
-      <c r="R33" s="43" t="str">
+      <c r="R33" s="44" t="str">
         <f t="shared" si="3"/>
         <v>2021-08-18T00:00:00.000+9</v>
       </c>
-      <c r="S33" s="43" t="str">
+      <c r="S33" s="44" t="str">
         <f t="shared" si="4"/>
         <v>2021-08-18T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="34" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:19" s="1" customFormat="1">
       <c r="A34" s="11">
         <v>33</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="C34" s="29" t="b">
         <v>1</v>
@@ -3091,17 +3047,17 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="F34" s="37">
-        <v>0.66666666666666663</v>
+        <v>0.66666666666666652</v>
       </c>
       <c r="G34" s="37"/>
       <c r="H34" s="37"/>
       <c r="I34" s="20">
         <v>30</v>
       </c>
-      <c r="J34" s="48">
+      <c r="J34" s="38">
         <v>9</v>
       </c>
-      <c r="K34" s="48">
+      <c r="K34" s="38">
         <v>3</v>
       </c>
       <c r="L34" s="20">
@@ -3113,33 +3069,33 @@
       <c r="N34" s="20">
         <v>8</v>
       </c>
-      <c r="O34" s="40" t="str">
-        <f t="shared" si="0"/>
-        <v>7/13～7/30_巽今宮病院/2021-08-19</v>
-      </c>
-      <c r="P34" s="43" t="str">
+      <c r="O34" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v>巽今宮病院_7/13～7/30/2021-08-19</v>
+      </c>
+      <c r="P34" s="44" t="str">
         <f t="shared" si="1"/>
         <v>2021-08-19T14:00:00.000+9</v>
       </c>
-      <c r="Q34" s="43" t="str">
+      <c r="Q34" s="44" t="str">
         <f t="shared" si="2"/>
         <v>2021-08-19T16:00:00.000+9</v>
       </c>
-      <c r="R34" s="43" t="str">
+      <c r="R34" s="44" t="str">
         <f t="shared" si="3"/>
         <v>2021-08-19T00:00:00.000+9</v>
       </c>
-      <c r="S34" s="43" t="str">
+      <c r="S34" s="44" t="str">
         <f t="shared" si="4"/>
         <v>2021-08-19T00:00:00.000+9</v>
       </c>
     </row>
-    <row r="35" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:19" s="1" customFormat="1">
       <c r="A35" s="11">
         <v>34</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="C35" s="29" t="b">
         <v>1</v>
@@ -3151,17 +3107,17 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="F35" s="37">
-        <v>0.66666666666666663</v>
+        <v>0.66666666666666652</v>
       </c>
       <c r="G35" s="37"/>
       <c r="H35" s="37"/>
       <c r="I35" s="20">
         <v>30</v>
       </c>
-      <c r="J35" s="48">
+      <c r="J35" s="38">
         <v>9</v>
       </c>
-      <c r="K35" s="48">
+      <c r="K35" s="38">
         <v>3</v>
       </c>
       <c r="L35" s="20">
@@ -3173,23 +3129,23 @@
       <c r="N35" s="20">
         <v>8</v>
       </c>
-      <c r="O35" s="40" t="str">
-        <f t="shared" si="0"/>
-        <v>7/13～7/30_巽今宮病院/2021-08-20</v>
-      </c>
-      <c r="P35" s="43" t="str">
+      <c r="O35" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v>巽今宮病院_7/13～7/30/2021-08-20</v>
+      </c>
+      <c r="P35" s="44" t="str">
         <f t="shared" si="1"/>
         <v>2021-08-20T14:00:00.000+9</v>
       </c>
-      <c r="Q35" s="43" t="str">
+      <c r="Q35" s="44" t="str">
         <f t="shared" si="2"/>
         <v>2021-08-20T16:00:00.000+9</v>
       </c>
-      <c r="R35" s="43" t="str">
+      <c r="R35" s="44" t="str">
         <f t="shared" si="3"/>
         <v>2021-08-20T00:00:00.000+9</v>
       </c>
-      <c r="S35" s="43" t="str">
+      <c r="S35" s="44" t="str">
         <f t="shared" si="4"/>
         <v>2021-08-20T00:00:00.000+9</v>
       </c>
@@ -3197,19 +3153,19 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <dimension ref="A1:S9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D16:D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.875" bestFit="1" customWidth="1"/>
@@ -3222,7 +3178,7 @@
     <col min="16" max="19" width="26.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:19" s="1" customFormat="1" ht="27">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -3239,7 +3195,7 @@
         <v>17</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G1" s="7" t="s">
         <v>18</v>
@@ -3251,7 +3207,7 @@
         <v>19</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K1" s="7" t="s">
         <v>23</v>
@@ -3272,7 +3228,7 @@
         <v>0</v>
       </c>
       <c r="Q1" s="7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R1" s="7" t="s">
         <v>11</v>
@@ -3281,12 +3237,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:19" s="1" customFormat="1">
       <c r="A2" s="1">
         <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C2" s="6" t="b">
         <v>1</v>
@@ -3298,13 +3254,13 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="F2" s="8">
-        <v>0.60416666666666663</v>
+        <v>0.60416666666666652</v>
       </c>
       <c r="G2" s="8">
         <v>0.58333333333333337</v>
       </c>
       <c r="H2" s="8">
-        <v>0.60416666666666663</v>
+        <v>0.60416666666666652</v>
       </c>
       <c r="I2" s="3">
         <v>30</v>
@@ -3324,33 +3280,33 @@
       <c r="N2" s="3">
         <v>8</v>
       </c>
-      <c r="O2" s="47" t="str">
-        <f>B2&amp;"/"&amp;TEXT(D2,"yyyy-mm-dd")</f>
-        <v>7/13～7/30_巽今宮病院/2021-05-18</v>
+      <c r="O2" s="48" t="str">
+        <f t="shared" ref="O2:O9" si="0">B2&amp;"/"&amp;TEXT(D2,"yyyy-mm-dd")</f>
+        <v>巽今宮病院_7/13～7/30/2021-05-18</v>
       </c>
       <c r="P2" s="9" t="str">
-        <f>TEXT(D2,"yyyy-mm-dd")&amp;"T"&amp;TEXT(E2,"hh:MM")&amp;":00.000+9"</f>
+        <f t="shared" ref="P2:P9" si="1">TEXT(D2,"yyyy-mm-dd")&amp;"T"&amp;TEXT(E2,"hh:MM")&amp;":00.000+9"</f>
         <v>2021-05-18T14:00:00.000+9</v>
       </c>
       <c r="Q2" s="9" t="str">
-        <f>TEXT(D2,"yyyy-mm-dd")&amp;"T"&amp;TEXT(F2,"hh:MM")&amp;":00.000+9"</f>
+        <f t="shared" ref="Q2:Q9" si="2">TEXT(D2,"yyyy-mm-dd")&amp;"T"&amp;TEXT(F2,"hh:MM")&amp;":00.000+9"</f>
         <v>2021-05-18T14:30:00.000+9</v>
       </c>
       <c r="R2" s="9" t="str">
-        <f>TEXT(D2,"yyyy-mm-dd")&amp;"T"&amp;TEXT(G2,"hh:MM")&amp;":00.000+9"</f>
+        <f t="shared" ref="R2:R9" si="3">TEXT(D2,"yyyy-mm-dd")&amp;"T"&amp;TEXT(G2,"hh:MM")&amp;":00.000+9"</f>
         <v>2021-05-18T14:00:00.000+9</v>
       </c>
       <c r="S2" s="9" t="str">
-        <f>TEXT(D2,"yyyy-mm-dd")&amp;"T"&amp;TEXT(H2,"hh:MM")&amp;":00.000+9"</f>
+        <f t="shared" ref="S2:S9" si="4">TEXT(D2,"yyyy-mm-dd")&amp;"T"&amp;TEXT(H2,"hh:MM")&amp;":00.000+9"</f>
         <v>2021-05-18T14:30:00.000+9</v>
       </c>
     </row>
-    <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:19" s="1" customFormat="1">
       <c r="A3" s="1">
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C3" s="6" t="b">
         <v>1</v>
@@ -3362,13 +3318,13 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="F3" s="8">
-        <v>0.60416666666666663</v>
+        <v>0.60416666666666652</v>
       </c>
       <c r="G3" s="8">
         <v>0.58333333333333337</v>
       </c>
       <c r="H3" s="8">
-        <v>0.60416666666666663</v>
+        <v>0.60416666666666652</v>
       </c>
       <c r="I3" s="3">
         <v>30</v>
@@ -3388,33 +3344,33 @@
       <c r="N3" s="3">
         <v>8</v>
       </c>
-      <c r="O3" s="47" t="str">
-        <f t="shared" ref="O3:O6" si="0">B3&amp;"/"&amp;TEXT(D3,"yyyy-mm-dd")</f>
-        <v>7/13～7/30_巽今宮病院/2021-05-25</v>
+      <c r="O3" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>巽今宮病院_7/13～7/30/2021-05-25</v>
       </c>
       <c r="P3" s="9" t="str">
-        <f t="shared" ref="P3:P6" si="1">TEXT(D3,"yyyy-mm-dd")&amp;"T"&amp;TEXT(E3,"hh:MM")&amp;":00.000+9"</f>
+        <f t="shared" si="1"/>
         <v>2021-05-25T14:00:00.000+9</v>
       </c>
       <c r="Q3" s="9" t="str">
-        <f t="shared" ref="Q3:Q6" si="2">TEXT(D3,"yyyy-mm-dd")&amp;"T"&amp;TEXT(F3,"hh:MM")&amp;":00.000+9"</f>
+        <f t="shared" si="2"/>
         <v>2021-05-25T14:30:00.000+9</v>
       </c>
       <c r="R3" s="9" t="str">
-        <f t="shared" ref="R3:R6" si="3">TEXT(D3,"yyyy-mm-dd")&amp;"T"&amp;TEXT(G3,"hh:MM")&amp;":00.000+9"</f>
+        <f t="shared" si="3"/>
         <v>2021-05-25T14:00:00.000+9</v>
       </c>
       <c r="S3" s="9" t="str">
-        <f t="shared" ref="S3:S6" si="4">TEXT(D3,"yyyy-mm-dd")&amp;"T"&amp;TEXT(H3,"hh:MM")&amp;":00.000+9"</f>
+        <f t="shared" si="4"/>
         <v>2021-05-25T14:30:00.000+9</v>
       </c>
     </row>
-    <row r="4" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:19" s="1" customFormat="1">
       <c r="A4" s="1">
         <v>7</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C4" s="6" t="b">
         <v>1</v>
@@ -3426,13 +3382,13 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="F4" s="8">
-        <v>0.60416666666666663</v>
+        <v>0.60416666666666652</v>
       </c>
       <c r="G4" s="8">
         <v>0.58333333333333337</v>
       </c>
       <c r="H4" s="8">
-        <v>0.60416666666666663</v>
+        <v>0.60416666666666652</v>
       </c>
       <c r="I4" s="3">
         <v>30</v>
@@ -3452,9 +3408,9 @@
       <c r="N4" s="3">
         <v>8</v>
       </c>
-      <c r="O4" s="47" t="str">
-        <f t="shared" si="0"/>
-        <v>7/13～7/30_巽今宮病院/2021-06-01</v>
+      <c r="O4" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>巽今宮病院_7/13～7/30/2021-06-01</v>
       </c>
       <c r="P4" s="9" t="str">
         <f t="shared" si="1"/>
@@ -3473,12 +3429,12 @@
         <v>2021-06-01T14:30:00.000+9</v>
       </c>
     </row>
-    <row r="5" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:19" s="1" customFormat="1">
       <c r="A5" s="1">
         <v>8</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C5" s="6" t="b">
         <v>1</v>
@@ -3490,13 +3446,13 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="F5" s="8">
-        <v>0.60416666666666663</v>
+        <v>0.60416666666666652</v>
       </c>
       <c r="G5" s="8">
         <v>0.58333333333333337</v>
       </c>
       <c r="H5" s="8">
-        <v>0.60416666666666663</v>
+        <v>0.60416666666666652</v>
       </c>
       <c r="I5" s="3">
         <v>30</v>
@@ -3516,9 +3472,9 @@
       <c r="N5" s="3">
         <v>8</v>
       </c>
-      <c r="O5" s="47" t="str">
-        <f t="shared" si="0"/>
-        <v>7/13～7/30_巽今宮病院/2021-06-08</v>
+      <c r="O5" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>巽今宮病院_7/13～7/30/2021-06-08</v>
       </c>
       <c r="P5" s="9" t="str">
         <f t="shared" si="1"/>
@@ -3537,12 +3493,12 @@
         <v>2021-06-08T14:30:00.000+9</v>
       </c>
     </row>
-    <row r="6" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:19" s="1" customFormat="1">
       <c r="A6" s="1">
         <v>9</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C6" s="6" t="b">
         <v>1</v>
@@ -3554,13 +3510,13 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="F6" s="8">
-        <v>0.60416666666666663</v>
+        <v>0.60416666666666652</v>
       </c>
       <c r="G6" s="8">
         <v>0.58333333333333337</v>
       </c>
       <c r="H6" s="8">
-        <v>0.60416666666666663</v>
+        <v>0.60416666666666652</v>
       </c>
       <c r="I6" s="3">
         <v>30</v>
@@ -3580,9 +3536,9 @@
       <c r="N6" s="3">
         <v>8</v>
       </c>
-      <c r="O6" s="47" t="str">
-        <f t="shared" si="0"/>
-        <v>7/13～7/30_巽今宮病院/2021-06-15</v>
+      <c r="O6" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>巽今宮病院_7/13～7/30/2021-06-15</v>
       </c>
       <c r="P6" s="9" t="str">
         <f t="shared" si="1"/>
@@ -3601,12 +3557,12 @@
         <v>2021-06-15T14:30:00.000+9</v>
       </c>
     </row>
-    <row r="7" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:19" s="1" customFormat="1">
       <c r="A7" s="1">
         <v>10</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C7" s="6" t="b">
         <v>1</v>
@@ -3618,13 +3574,13 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="F7" s="8">
-        <v>0.60416666666666663</v>
+        <v>0.60416666666666652</v>
       </c>
       <c r="G7" s="8">
         <v>0.58333333333333337</v>
       </c>
       <c r="H7" s="8">
-        <v>0.60416666666666663</v>
+        <v>0.60416666666666652</v>
       </c>
       <c r="I7" s="3">
         <v>30</v>
@@ -3644,33 +3600,33 @@
       <c r="N7" s="3">
         <v>8</v>
       </c>
-      <c r="O7" s="47" t="str">
-        <f t="shared" ref="O7" si="5">B7&amp;"/"&amp;TEXT(D7,"yyyy-mm-dd")</f>
-        <v>7/13～7/30_巽今宮病院/2021-06-22</v>
+      <c r="O7" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>巽今宮病院_7/13～7/30/2021-06-22</v>
       </c>
       <c r="P7" s="9" t="str">
-        <f t="shared" ref="P7" si="6">TEXT(D7,"yyyy-mm-dd")&amp;"T"&amp;TEXT(E7,"hh:MM")&amp;":00.000+9"</f>
+        <f t="shared" si="1"/>
         <v>2021-06-22T14:00:00.000+9</v>
       </c>
       <c r="Q7" s="9" t="str">
-        <f t="shared" ref="Q7" si="7">TEXT(D7,"yyyy-mm-dd")&amp;"T"&amp;TEXT(F7,"hh:MM")&amp;":00.000+9"</f>
+        <f t="shared" si="2"/>
         <v>2021-06-22T14:30:00.000+9</v>
       </c>
       <c r="R7" s="9" t="str">
-        <f t="shared" ref="R7" si="8">TEXT(D7,"yyyy-mm-dd")&amp;"T"&amp;TEXT(G7,"hh:MM")&amp;":00.000+9"</f>
+        <f t="shared" si="3"/>
         <v>2021-06-22T14:00:00.000+9</v>
       </c>
       <c r="S7" s="9" t="str">
-        <f t="shared" ref="S7" si="9">TEXT(D7,"yyyy-mm-dd")&amp;"T"&amp;TEXT(H7,"hh:MM")&amp;":00.000+9"</f>
+        <f t="shared" si="4"/>
         <v>2021-06-22T14:30:00.000+9</v>
       </c>
     </row>
-    <row r="8" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:19" s="1" customFormat="1">
       <c r="A8" s="1">
         <v>11</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C8" s="6" t="b">
         <v>1</v>
@@ -3682,13 +3638,13 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="F8" s="8">
-        <v>0.60416666666666663</v>
+        <v>0.60416666666666652</v>
       </c>
       <c r="G8" s="8">
         <v>0.58333333333333337</v>
       </c>
       <c r="H8" s="8">
-        <v>0.60416666666666663</v>
+        <v>0.60416666666666652</v>
       </c>
       <c r="I8" s="3">
         <v>30</v>
@@ -3708,33 +3664,33 @@
       <c r="N8" s="3">
         <v>8</v>
       </c>
-      <c r="O8" s="47" t="str">
-        <f t="shared" ref="O8:O9" si="10">B8&amp;"/"&amp;TEXT(D8,"yyyy-mm-dd")</f>
-        <v>7/13～7/30_巽今宮病院/2021-06-29</v>
+      <c r="O8" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>巽今宮病院_7/13～7/30/2021-06-29</v>
       </c>
       <c r="P8" s="9" t="str">
-        <f t="shared" ref="P8:P9" si="11">TEXT(D8,"yyyy-mm-dd")&amp;"T"&amp;TEXT(E8,"hh:MM")&amp;":00.000+9"</f>
+        <f t="shared" si="1"/>
         <v>2021-06-29T14:00:00.000+9</v>
       </c>
       <c r="Q8" s="9" t="str">
-        <f t="shared" ref="Q8:Q9" si="12">TEXT(D8,"yyyy-mm-dd")&amp;"T"&amp;TEXT(F8,"hh:MM")&amp;":00.000+9"</f>
+        <f t="shared" si="2"/>
         <v>2021-06-29T14:30:00.000+9</v>
       </c>
       <c r="R8" s="9" t="str">
-        <f t="shared" ref="R8:R9" si="13">TEXT(D8,"yyyy-mm-dd")&amp;"T"&amp;TEXT(G8,"hh:MM")&amp;":00.000+9"</f>
+        <f t="shared" si="3"/>
         <v>2021-06-29T14:00:00.000+9</v>
       </c>
       <c r="S8" s="9" t="str">
-        <f t="shared" ref="S8:S9" si="14">TEXT(D8,"yyyy-mm-dd")&amp;"T"&amp;TEXT(H8,"hh:MM")&amp;":00.000+9"</f>
+        <f t="shared" si="4"/>
         <v>2021-06-29T14:30:00.000+9</v>
       </c>
     </row>
-    <row r="9" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:19" s="1" customFormat="1">
       <c r="A9" s="1">
         <v>12</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C9" s="6" t="b">
         <v>1</v>
@@ -3746,13 +3702,13 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="F9" s="8">
-        <v>0.60416666666666663</v>
+        <v>0.60416666666666652</v>
       </c>
       <c r="G9" s="8">
         <v>0.58333333333333337</v>
       </c>
       <c r="H9" s="8">
-        <v>0.60416666666666663</v>
+        <v>0.60416666666666652</v>
       </c>
       <c r="I9" s="3">
         <v>30</v>
@@ -3772,30 +3728,30 @@
       <c r="N9" s="3">
         <v>8</v>
       </c>
-      <c r="O9" s="47" t="str">
-        <f t="shared" si="10"/>
-        <v>7/13～7/30_巽今宮病院/2021-07-06</v>
+      <c r="O9" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>巽今宮病院_7/13～7/30/2021-07-06</v>
       </c>
       <c r="P9" s="9" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="1"/>
         <v>2021-07-06T14:00:00.000+9</v>
       </c>
       <c r="Q9" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="2"/>
         <v>2021-07-06T14:30:00.000+9</v>
       </c>
       <c r="R9" s="9" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="3"/>
         <v>2021-07-06T14:00:00.000+9</v>
       </c>
       <c r="S9" s="9" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="4"/>
         <v>2021-07-06T14:30:00.000+9</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" r:id="rId1"/>
 </worksheet>
 </file>